--- a/max.xlsx
+++ b/max.xlsx
@@ -31,10 +31,10 @@
     <t>Max</t>
   </si>
   <si>
-    <t>Impliciet</t>
+    <t>SearchMin</t>
   </si>
   <si>
-    <t>Expliciet</t>
+    <t>GetMin</t>
   </si>
 </sst>
 </file>
@@ -104,6 +104,28 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Max</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -118,12 +140,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -146,61 +165,75 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>Sheet1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Impliciet</c:v>
+                  <c:v>List</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>List</c:v>
+                  <c:v>SearchMin</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Avl</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Heap</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hash</c:v>
+                  <c:v>GetMin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:f>Sheet1!$B$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -212,61 +245,235 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Expliciet</c:v>
+                  <c:v>Avl</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:f>Sheet1!$B$1:$C$1</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>List</c:v>
+                  <c:v>SearchMin</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Avl</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Heap</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hash</c:v>
+                  <c:v>GetMin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>Sheet1!$B$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heap</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SearchMin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GetMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>SearchMin</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>GetMin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>905490.6</c:v>
                 </c:pt>
               </c:numCache>
@@ -281,13 +488,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="255268112"/>
-        <c:axId val="255267552"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="183149648"/>
+        <c:axId val="183150208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="255268112"/>
+        <c:axId val="183149648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -301,7 +508,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="tx2">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -317,10 +524,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -330,7 +534,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255267552"/>
+        <c:crossAx val="183150208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -338,7 +542,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="255267552"/>
+        <c:axId val="183150208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20"/>
@@ -349,7 +553,7 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="tx2">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
@@ -377,10 +581,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx2"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -390,7 +591,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255268112"/>
+        <c:crossAx val="183149648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -420,10 +621,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -444,7 +642,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="tx2">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -512,33 +710,27 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="207">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -553,7 +745,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -561,7 +753,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -569,17 +761,14 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -588,9 +777,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -613,35 +801,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -650,33 +838,32 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -692,21 +879,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -740,64 +922,157 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="tx2">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -805,102 +1080,6 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -908,17 +1087,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -927,12 +1106,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -941,14 +1117,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -957,10 +1133,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -969,7 +1142,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -990,10 +1163,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
@@ -1002,14 +1172,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1018,16 +1182,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1338,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
